--- a/biology/Médecine/Liste_d'ambulanciers_durant_la_Première_Guerre_mondiale/Liste_d'ambulanciers_durant_la_Première_Guerre_mondiale.xlsx
+++ b/biology/Médecine/Liste_d'ambulanciers_durant_la_Première_Guerre_mondiale/Liste_d'ambulanciers_durant_la_Première_Guerre_mondiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27ambulanciers_durant_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_d'ambulanciers_durant_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste de personnalités ayant servi comme ambulanciers durant la Première Guerre mondiale. Très nombreuses ont été les personnalités - écrivains en particulier - qui se sont portées volontaires comme conducteur d'ambulance pour les puissances alliées. Dans de nombreux cas, ils ont sympathisé fortement avec les idéaux des Puissances alliées mais ne voulaient pas, ou étaient trop vieux, pour participer aux combats. Les femmes n'avaient pas à l'époque la possibilité de participer aux combats. Plusieurs des Américains figurant sur cette liste se sont portés volontaires avant l'entrée des États-Unis dans la Première Guerre mondiale en 1917. Beaucoup d'écrivains américains seront plus tard associés à la Génération perdue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27ambulanciers_durant_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_d'ambulanciers_durant_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,36 +523,38 @@
           <t>Écrivains</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Robert C. Binkley (en) - historien américain
 Julien Bryan - volontaire de l'American Field Service
-Louis Bromfield[1] - volontaire de l'American Field Service
-William Slater Brown (en)[1] - volontaire du Norton-Harjes Ambulance Corps (en)
-Malcolm Cowley (en)[1] - volontaire de l'American Field Service
-Harry Crosby[1] - volontaire de l'American Field Service
-E. E. Cummings[1] - volontaire du Norton-Harjes Ambulance Corps
+Louis Bromfield - volontaire de l'American Field Service
+William Slater Brown (en) - volontaire du Norton-Harjes Ambulance Corps (en)
+Malcolm Cowley (en) - volontaire de l'American Field Service
+Harry Crosby - volontaire de l'American Field Service
+E. E. Cummings - volontaire du Norton-Harjes Ambulance Corps
 Nino Dadechkéliani - ambulancière de l'Armée impériale russe
-Russell Davenport[2] - Medical Corps (United States Army) (en)
-John Dos Passos[3] - volontaire du Norton-Harjes Ambulance Corps
-Julien Green[1],[4]- volontaire de l'American Field Service
-Ernest Hemingway[1] - volontaire de l'American Field Service
-Robert Hillyer (en)[1] - volontaire du Norton-Harjes Ambulance Corps
-Sidney Howard[1] - volontaire de l'American Field Service
+Russell Davenport - Medical Corps (United States Army) (en)
+John Dos Passos - volontaire du Norton-Harjes Ambulance Corps
+Julien Green,- volontaire de l'American Field Service
+Ernest Hemingway - volontaire de l'American Field Service
+Robert Hillyer (en) - volontaire du Norton-Harjes Ambulance Corps
+Sidney Howard - volontaire de l'American Field Service
 Jerome K. Jerome - ambulancier de l'Armée française
-John Howard Lawson[5] - volontaire du Norton-Harjes Ambulance Corps
-Desmond MacCarthy[2] - volontaire du corps d'ambulanciers de la Croix rouge britannique (en)
-Archibald MacLeish[6] - ambulancier de l'U.S. Army devient plus tard capitaine d'artillerie
+John Howard Lawson - volontaire du Norton-Harjes Ambulance Corps
+Desmond MacCarthy - volontaire du corps d'ambulanciers de la Croix rouge britannique (en)
+Archibald MacLeish - ambulancier de l'U.S. Army devient plus tard capitaine d'artillerie
 John Masefield - sert comme ordonnance à l'hôpital britannique pour les soldats français en France
 Francis Van Wyck Mason - volontaire du corps des ambulances qui rejoint plus tard l'armée française puis l'U.S. Army
-Somerset Maugham[2] - volontaire de la Croix rouge britannique ambulance corps
-Charles Nordhoff[2] - sert comme ordonnance à l'hôpital britannique pour les soldats français en France
-William Seabrook[1],[2] - American Field Service
-Robert William Service[7] - volontaire de la Croix rouge britannique
-Olaf Stapledon[8] - volontaire de la Friends' Ambulance Unit
-Dale Van Every (en) - écrivain et producteur de cinéma américain[9].
+Somerset Maugham - volontaire de la Croix rouge britannique ambulance corps
+Charles Nordhoff - sert comme ordonnance à l'hôpital britannique pour les soldats français en France
+William Seabrook, - American Field Service
+Robert William Service - volontaire de la Croix rouge britannique
+Olaf Stapledon - volontaire de la Friends' Ambulance Unit
+Dale Van Every (en) - écrivain et producteur de cinéma américain.
 Hugh Walpole - volontaire de la croix rouge en Russie
-Amos Niven Wilder[10] - volontaire de l'American Field Service, rejoint plus tard une unité d'artillerie</t>
+Amos Niven Wilder - volontaire de l'American Field Service, rejoint plus tard une unité d'artillerie</t>
         </is>
       </c>
     </row>
@@ -550,7 +564,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27ambulanciers_durant_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_d'ambulanciers_durant_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,10 +582,12 @@
           <t>Compositeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Maurice Ravel[11] - ambulancier ou conducteur de camion
-Albert Roussel[12] - conducteur pour la Croix rouge
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Maurice Ravel - ambulancier ou conducteur de camion
+Albert Roussel - conducteur pour la Croix rouge
 Ralph Vaughan Williams - Royal Army Medical Corps</t>
         </is>
       </c>
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27ambulanciers_durant_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_d'ambulanciers_durant_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,12 +616,14 @@
           <t>Réalisateurs de cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>René Clair[13]
-Jean Cocteau[14]
-Walt Disney[15],[16] - volontaire de la Croix-Rouge américaine mais ne sert qu'après la signature de l'armistice mettant fin à la Guerre[17],[18]
-William A. Wellman[19].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>René Clair
+Jean Cocteau
+Walt Disney, - volontaire de la Croix-Rouge américaine mais ne sert qu'après la signature de l'armistice mettant fin à la Guerre,
+William A. Wellman.</t>
         </is>
       </c>
     </row>
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27ambulanciers_durant_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_d'ambulanciers_durant_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,16 +651,18 @@
           <t>Autres personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Frank Buckles[20] - dernier ancien combattant américain de la Première Guerre mondiale
-Marion Barbara Joe Carstairs[21] - anglo-américain fortuné. Plus tard connu comme conducteur de puissants bateaux et pour son mode de vie excentrique
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Frank Buckles - dernier ancien combattant américain de la Première Guerre mondiale
+Marion Barbara Joe Carstairs - anglo-américain fortuné. Plus tard connu comme conducteur de puissants bateaux et pour son mode de vie excentrique
 Stafford Cripps - homme politique britannique
-Hélène Dutrieu[22] - pionnière de l'aviation française
+Hélène Dutrieu - pionnière de l'aviation française
 Florence Jaffray Harriman- membre de la haute société et de la commission Wilson sur les conflits du travail - directrice du Women's Motor Corps en France et organisatrice de la Croix-Rouge américaine du district de Columbia
 Tony Hulman (en) - homme d'affaires américain, propriétaire et exploitant du Indianapolis Motor Speedway - volontaire de la Croix-Rouge américaine
 Ray Kroc - entrepreneur américain associé à McDonald's Corporation - formé pour être ambulancier bien que la guerre s'est terminée avant qu'il n'entre en action
-Waldo Peirce[23] - peintre américain - volontaire de l'American Field Service
+Waldo Peirce - peintre américain - volontaire de l'American Field Service
 Percy Toplis (en) - fameux déserteur britannique</t>
         </is>
       </c>
@@ -653,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27ambulanciers_durant_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_d'ambulanciers_durant_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,7 +691,9 @@
           <t>Personnalités qui servent les Alliés avec une fonction spécifique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Algernon Blackwood - chercheur auprès de la Croix-rouge britannique, essaie d'identifier les morts ou les soldats perdus - écrivain britannique
 A. J. Cronin - chirurgien de la Royal Navy - romancier écossais
